--- a/PopravljeniExcel/prebivalstvoizobrazba_popravljeno.xlsx
+++ b/PopravljeniExcel/prebivalstvoizobrazba_popravljeno.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192eea6e0f660701/Dokumenti/Faks/2. letnik/4. semester/Praktikum II/OPSI-Migracije/OPSI-Migracije/PopravljeniExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA7493-7919-48AA-813B-C2F8031AA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{19DA7493-7919-48AA-813B-C2F8031AA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFDB8C6-F0A9-4E0E-B2E6-A3ED342E09C9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,177 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="209">
   <si>
     <t>Občina</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
-  </si>
-  <si>
-    <t>Unnamed: 18</t>
-  </si>
-  <si>
-    <t>Unnamed: 19</t>
-  </si>
-  <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
-    <t>Unnamed: 21</t>
-  </si>
-  <si>
-    <t>Unnamed: 22</t>
-  </si>
-  <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Unnamed: 24</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
-  </si>
-  <si>
-    <t>Unnamed: 26</t>
-  </si>
-  <si>
-    <t>Unnamed: 27</t>
-  </si>
-  <si>
-    <t>Unnamed: 28</t>
-  </si>
-  <si>
-    <t>Unnamed: 29</t>
-  </si>
-  <si>
-    <t>Unnamed: 30</t>
-  </si>
-  <si>
-    <t>Unnamed: 31</t>
-  </si>
-  <si>
-    <t>Unnamed: 32</t>
-  </si>
-  <si>
-    <t>Unnamed: 33</t>
-  </si>
-  <si>
-    <t>Unnamed: 34</t>
-  </si>
-  <si>
-    <t>Unnamed: 35</t>
-  </si>
-  <si>
-    <t>Unnamed: 36</t>
-  </si>
-  <si>
-    <t>Unnamed: 37</t>
-  </si>
-  <si>
-    <t>Unnamed: 38</t>
-  </si>
-  <si>
-    <t>Unnamed: 39</t>
-  </si>
-  <si>
-    <t>Unnamed: 40</t>
-  </si>
-  <si>
-    <t>Unnamed: 41</t>
-  </si>
-  <si>
-    <t>Unnamed: 42</t>
-  </si>
-  <si>
-    <t>Unnamed: 43</t>
-  </si>
-  <si>
-    <t>Unnamed: 44</t>
-  </si>
-  <si>
-    <t>Unnamed: 45</t>
-  </si>
-  <si>
-    <t>Unnamed: 46</t>
-  </si>
-  <si>
-    <t>Unnamed: 47</t>
-  </si>
-  <si>
-    <t>Unnamed: 48</t>
-  </si>
-  <si>
-    <t>Unnamed: 49</t>
-  </si>
-  <si>
-    <t>Unnamed: 50</t>
-  </si>
-  <si>
-    <t>Unnamed: 51</t>
-  </si>
-  <si>
-    <t>Unnamed: 52</t>
-  </si>
-  <si>
-    <t>Unnamed: 53</t>
-  </si>
-  <si>
-    <t>Unnamed: 54</t>
-  </si>
-  <si>
-    <t>Unnamed: 55</t>
-  </si>
-  <si>
-    <t>Unnamed: 56</t>
   </si>
   <si>
     <t>SLOVENIA</t>
@@ -804,6 +636,18 @@
   <si>
     <t>2024</t>
   </si>
+  <si>
+    <t>Education - TOTAL</t>
+  </si>
+  <si>
+    <t>Basic or less</t>
+  </si>
+  <si>
+    <t>Upper secondary</t>
+  </si>
+  <si>
+    <t>Tertiary</t>
+  </si>
 </sst>
 </file>
 
@@ -820,7 +664,9 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -831,7 +677,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -839,31 +685,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -1169,276 +997,234 @@
   <dimension ref="A1:BE190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BI12" sqref="BI12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
       </c>
       <c r="B3">
         <v>1759336</v>
@@ -1609,9 +1395,9 @@
         <v>475069</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>16016</v>
@@ -1782,9 +1568,9 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>7103</v>
@@ -1955,9 +1741,9 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>7036</v>
@@ -2128,9 +1914,9 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>4518</v>
@@ -2301,9 +2087,9 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3418</v>
@@ -2474,9 +2260,9 @@
         <v>989</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2873</v>
@@ -2647,9 +2433,9 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>4991</v>
@@ -2820,9 +2606,9 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>9212</v>
@@ -2993,9 +2779,9 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>21097</v>
@@ -3166,9 +2952,9 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3557</v>
@@ -3339,9 +3125,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>42154</v>
@@ -3512,9 +3298,9 @@
         <v>11639</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>5832</v>
@@ -3685,9 +3471,9 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>9574</v>
@@ -3858,9 +3644,9 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>4114</v>
@@ -4031,9 +3817,9 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2251</v>
@@ -4204,9 +3990,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>3404</v>
@@ -4377,9 +4163,9 @@
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>3260</v>
@@ -4550,9 +4336,9 @@
         <v>679</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>5960</v>
@@ -4723,9 +4509,9 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>4460</v>
@@ -4896,9 +4682,9 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>28286</v>
@@ -5069,9 +4855,9 @@
         <v>9476</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2536</v>
@@ -5242,9 +5028,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>7726</v>
@@ -5415,9 +5201,9 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>5720</v>
@@ -5588,9 +5374,9 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>5775</v>
@@ -5761,9 +5547,9 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>3392</v>
@@ -5934,9 +5720,9 @@
         <v>697</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>7498</v>
@@ -6107,9 +5893,9 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2303</v>
@@ -6280,9 +6066,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1929</v>
@@ -6453,9 +6239,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>15861</v>
@@ -6626,9 +6412,9 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>8772</v>
@@ -6799,9 +6585,9 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>3669</v>
@@ -6972,9 +6758,9 @@
         <v>984</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>10160</v>
@@ -7145,9 +6931,9 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>5703</v>
@@ -7318,9 +7104,9 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>12203</v>
@@ -7491,9 +7277,9 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>12895</v>
@@ -7664,9 +7450,9 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>13822</v>
@@ -7837,9 +7623,9 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>18589</v>
@@ -8010,9 +7796,9 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -8183,9 +7969,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>24381</v>
@@ -8356,9 +8142,9 @@
         <v>6322</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>4972</v>
@@ -8529,9 +8315,9 @@
         <v>906</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>5772</v>
@@ -8702,9 +8488,9 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>3647</v>
@@ -8875,9 +8661,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>536</v>
@@ -9048,9 +8834,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>14307</v>
@@ -9221,9 +9007,9 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>3058</v>
@@ -9394,9 +9180,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>45832</v>
@@ -9567,9 +9353,9 @@
         <v>11955</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>2779</v>
@@ -9740,9 +9526,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>46945</v>
@@ -9913,9 +9699,9 @@
         <v>13579</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>4687</v>
@@ -10086,9 +9872,9 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>22080</v>
@@ -10259,9 +10045,9 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>4108</v>
@@ -10432,9 +10218,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>1343</v>
@@ -10605,9 +10391,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>11680</v>
@@ -10778,9 +10564,9 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>7042</v>
@@ -10951,9 +10737,9 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>9798</v>
@@ -11124,9 +10910,9 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>12575</v>
@@ -11297,9 +11083,9 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>242947</v>
@@ -11470,9 +11256,9 @@
         <v>96298</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>2253</v>
@@ -11643,9 +11429,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>10128</v>
@@ -11816,9 +11602,9 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>10876</v>
@@ -11989,9 +11775,9 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>3283</v>
@@ -12162,9 +11948,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>1710</v>
@@ -12335,9 +12121,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>1320</v>
@@ -12508,9 +12294,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>4458</v>
@@ -12681,9 +12467,9 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>3502</v>
@@ -12854,9 +12640,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>99072</v>
@@ -13027,9 +12813,9 @@
         <v>28613</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>13209</v>
@@ -13200,9 +12986,9 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>6227</v>
@@ -13373,9 +13159,9 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>7162</v>
@@ -13546,9 +13332,9 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>3202</v>
@@ -13719,9 +13505,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>4180</v>
@@ -13892,9 +13678,9 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>3980</v>
@@ -14065,9 +13851,9 @@
         <v>899</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>4083</v>
@@ -14238,9 +14024,9 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>5234</v>
@@ -14411,9 +14197,9 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>3424</v>
@@ -14584,9 +14370,9 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>16907</v>
@@ -14757,9 +14543,9 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>2975</v>
@@ -14930,9 +14716,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>4357</v>
@@ -15103,9 +14889,9 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>2226</v>
@@ -15276,9 +15062,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>27841</v>
@@ -15449,9 +15235,9 @@
         <v>7401</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>30669</v>
@@ -15622,9 +15408,9 @@
         <v>9195</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>1441</v>
@@ -15795,9 +15581,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>10868</v>
@@ -15968,9 +15754,9 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>368</v>
@@ -16141,9 +15927,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>6531</v>
@@ -16314,9 +16100,9 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>15775</v>
@@ -16487,9 +16273,9 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>5079</v>
@@ -16660,9 +16446,9 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>2795</v>
@@ -16833,9 +16619,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>2216</v>
@@ -17006,9 +16792,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>13387</v>
@@ -17179,9 +16965,9 @@
         <v>3716</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>2952</v>
@@ -17352,9 +17138,9 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>20553</v>
@@ -17525,9 +17311,9 @@
         <v>5329</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>5281</v>
@@ -17698,9 +17484,9 @@
         <v>853</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>5878</v>
@@ -17871,9 +17657,9 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>3868</v>
@@ -18044,9 +17830,9 @@
         <v>803</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>4630</v>
@@ -18217,9 +18003,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>5360</v>
@@ -18390,9 +18176,9 @@
         <v>975</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>16197</v>
@@ -18563,9 +18349,9 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>10016</v>
@@ -18736,9 +18522,9 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>7960</v>
@@ -18909,9 +18695,9 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>2777</v>
@@ -19082,9 +18868,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>9297</v>
@@ -19255,9 +19041,9 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>2658</v>
@@ -19428,9 +19214,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>6348</v>
@@ -19601,9 +19387,9 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>3307</v>
@@ -19774,9 +19560,9 @@
         <v>598</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>15183</v>
@@ -19947,9 +19733,9 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>11251</v>
@@ -20120,9 +19906,9 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>14294</v>
@@ -20293,9 +20079,9 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>21149</v>
@@ -20466,9 +20252,9 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>12149</v>
@@ -20639,9 +20425,9 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>3551</v>
@@ -20812,9 +20598,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>2448</v>
@@ -20985,9 +20771,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>10112</v>
@@ -21158,9 +20944,9 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>15198</v>
@@ -21331,9 +21117,9 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>12355</v>
@@ -21504,9 +21290,9 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>13114</v>
@@ -21677,9 +21463,9 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>2916</v>
@@ -21850,9 +21636,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>28287</v>
@@ -22023,9 +21809,9 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>3497</v>
@@ -22196,9 +21982,9 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>4907</v>
@@ -22369,9 +22155,9 @@
         <v>841</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>4472</v>
@@ -22542,9 +22328,9 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>1922</v>
@@ -22715,9 +22501,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>3758</v>
@@ -22888,9 +22674,9 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>7131</v>
@@ -23061,9 +22847,9 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>13705</v>
@@ -23234,9 +23020,9 @@
         <v>4181</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>2351</v>
@@ -23407,9 +23193,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>14577</v>
@@ -23580,9 +23366,9 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>1381</v>
@@ -23753,9 +23539,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>5410</v>
@@ -23926,9 +23712,9 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>1969</v>
@@ -24099,9 +23885,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>1204</v>
@@ -24272,9 +24058,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>1362</v>
@@ -24445,9 +24231,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>4504</v>
@@ -24618,9 +24404,9 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>1651</v>
@@ -24791,9 +24577,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>1756</v>
@@ -24964,9 +24750,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>824</v>
@@ -25137,9 +24923,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>1871</v>
@@ -25310,9 +25096,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>1149</v>
@@ -25483,9 +25269,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>2925</v>
@@ -25656,9 +25442,9 @@
         <v>765</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>1990</v>
@@ -25829,9 +25615,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>3259</v>
@@ -26002,9 +25788,9 @@
         <v>749</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>9312</v>
@@ -26175,9 +25961,9 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>279</v>
@@ -26348,9 +26134,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>2389</v>
@@ -26521,9 +26307,9 @@
         <v>610</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>563</v>
@@ -26694,9 +26480,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>4380</v>
@@ -26867,9 +26653,9 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>596</v>
@@ -27040,9 +26826,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>3243</v>
@@ -27213,9 +26999,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>2677</v>
@@ -27386,9 +27172,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>3451</v>
@@ -27559,9 +27345,9 @@
         <v>665</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>5446</v>
@@ -27732,9 +27518,9 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>2335</v>
@@ -27905,9 +27691,9 @@
         <v>633</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>3390</v>
@@ -28078,9 +27864,9 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>1674</v>
@@ -28251,9 +28037,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>5047</v>
@@ -28424,9 +28210,9 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>4247</v>
@@ -28597,9 +28383,9 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>5895</v>
@@ -28770,9 +28556,9 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>1155</v>
@@ -28943,9 +28729,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>1054</v>
@@ -29116,9 +28902,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>3940</v>
@@ -29289,9 +29075,9 @@
         <v>872</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>1838</v>
@@ -29462,9 +29248,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>444</v>
@@ -29635,9 +29421,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>1995</v>
@@ -29808,9 +29594,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>1026</v>
@@ -29981,9 +29767,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>1369</v>
@@ -30154,9 +29940,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>1145</v>
@@ -30327,9 +30113,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>3164</v>
@@ -30500,9 +30286,9 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>1293</v>
@@ -30673,9 +30459,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>1098</v>
@@ -30846,9 +30632,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>2170</v>
@@ -31019,9 +30805,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>3168</v>
@@ -31192,9 +30978,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>1994</v>
@@ -31365,9 +31151,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>2049</v>
@@ -31538,9 +31324,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>1799</v>
@@ -31711,9 +31497,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>2457</v>
@@ -31884,9 +31670,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>3951</v>
@@ -32057,9 +31843,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>3776</v>
@@ -32230,9 +32016,9 @@
         <v>903</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>1865</v>
@@ -32403,9 +32189,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>3233</v>
@@ -32576,9 +32362,9 @@
         <v>824</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>1826</v>
@@ -32749,9 +32535,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>1773</v>
@@ -32922,9 +32708,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>2481</v>
@@ -33095,9 +32881,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="B186">
         <v>3020</v>
@@ -33268,9 +33054,9 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>1954</v>
@@ -33441,9 +33227,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>1760</v>
@@ -33614,21 +33400,21 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="D189" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="F189">
         <v>2226</v>
@@ -33787,57 +33573,57 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="D190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="E190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="F190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="G190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="H190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="I190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="J190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="K190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="L190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="M190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="N190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="O190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="P190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="Q190" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="R190">
         <v>2801</v>

--- a/PopravljeniExcel/prebivalstvoizobrazba_popravljeno.xlsx
+++ b/PopravljeniExcel/prebivalstvoizobrazba_popravljeno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192eea6e0f660701/Dokumenti/Faks/2. letnik/4. semester/Praktikum II/OPSI-Migracije/OPSI-Migracije/PopravljeniExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{19DA7493-7919-48AA-813B-C2F8031AA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27E3D15-A0CF-439C-88F1-FE59B638D37A}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{19DA7493-7919-48AA-813B-C2F8031AA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D88960-2898-451F-915B-D9DDB16AAFD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
   <si>
     <t>Občina</t>
   </si>
@@ -965,7 +965,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,25 @@
       <c r="B1" t="s">
         <v>191</v>
       </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
       <c r="F1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" t="s">
         <v>192</v>
       </c>
     </row>
